--- a/appendix/mean_matthews_corrcoef.xlsx
+++ b/appendix/mean_matthews_corrcoef.xlsx
@@ -525,7 +525,7 @@
         <v>0.447</v>
       </c>
       <c r="G3" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="H3" t="n">
         <v>0.506</v>

--- a/appendix/mean_matthews_corrcoef.xlsx
+++ b/appendix/mean_matthews_corrcoef.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.291</v>
+        <v>0.298</v>
       </c>
       <c r="D5" t="n">
-        <v>0.408</v>
+        <v>0.422</v>
       </c>
       <c r="E5" t="n">
-        <v>0.447</v>
+        <v>0.457</v>
       </c>
       <c r="F5" t="n">
-        <v>0.49</v>
+        <v>0.501</v>
       </c>
       <c r="G5" t="n">
-        <v>0.54</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.537</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +618,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.291</v>
+        <v>0.298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.414</v>
+        <v>0.422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.447</v>
+        <v>0.457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.49</v>
+        <v>0.501</v>
       </c>
       <c r="G7" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.322</v>
+        <v>0.325</v>
       </c>
       <c r="D8" t="n">
-        <v>0.503</v>
+        <v>0.521</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.594</v>
+        <v>0.584</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.641</v>
       </c>
       <c r="H8" t="n">
-        <v>0.646</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.309</v>
+        <v>0.277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.416</v>
+        <v>0.407</v>
       </c>
       <c r="D9" t="n">
-        <v>0.539</v>
+        <v>0.541</v>
       </c>
       <c r="E9" t="n">
-        <v>0.574</v>
+        <v>0.572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.604</v>
+        <v>0.598</v>
       </c>
       <c r="G9" t="n">
-        <v>0.626</v>
+        <v>0.625</v>
       </c>
       <c r="H9" t="n">
-        <v>0.637</v>
+        <v>0.632</v>
       </c>
     </row>
   </sheetData>
